--- a/用例数据/沪港/投票/T日/测试结果.xlsx
+++ b/用例数据/沪港/投票/T日/测试结果.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="exchangemessage" sheetId="1" r:id="rId1"/>
+    <sheet name="votestkinfo" sheetId="2" r:id="rId2"/>
+    <sheet name="votemettinginfo" sheetId="3" r:id="rId3"/>
+    <sheet name="votelistinfo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="305">
   <si>
     <t>OCCURTIME</t>
   </si>
@@ -853,6 +856,87 @@
   </si>
   <si>
     <t>授权委托书议案6</t>
+  </si>
+  <si>
+    <t>BASICEXCHID</t>
+  </si>
+  <si>
+    <t>MEETINGSEQ</t>
+  </si>
+  <si>
+    <t>STKNAME</t>
+  </si>
+  <si>
+    <t>LASTTRADEDATE</t>
+  </si>
+  <si>
+    <t>REGISTRATIONDATE</t>
+  </si>
+  <si>
+    <t>STYPE</t>
+  </si>
+  <si>
+    <t>SH_GGT</t>
+  </si>
+  <si>
+    <t>比亚迪电子</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>H股</t>
+  </si>
+  <si>
+    <t>VOTEID</t>
+  </si>
+  <si>
+    <t>VOTEINFO</t>
+  </si>
+  <si>
+    <t>VOTETYPE</t>
+  </si>
+  <si>
+    <t>VOTELEIJINO</t>
+  </si>
+  <si>
+    <t>VOTERELATION</t>
+  </si>
+  <si>
+    <t>REFCODELIST</t>
+  </si>
+  <si>
+    <t>PERMITFLAG</t>
+  </si>
+  <si>
+    <t>GROUPID</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>MEETINGDESC</t>
+  </si>
+  <si>
+    <t>MEETINGTYPE</t>
+  </si>
+  <si>
+    <t>MEETINGDATEBEGIN</t>
+  </si>
+  <si>
+    <t>MEETINGDATEEND</t>
+  </si>
+  <si>
+    <t>COMPANYCODE</t>
+  </si>
+  <si>
+    <t>COMPANYINFO</t>
+  </si>
+  <si>
+    <t>20230201000000</t>
+  </si>
+  <si>
+    <t>20230301000000</t>
   </si>
 </sst>
 </file>
@@ -1180,18 +1264,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM600"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1405,7 +1489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1500,7 +1584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1595,7 +1679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1690,7 +1774,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1785,7 +1869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1880,7 +1964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1975,7 +2059,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -2070,7 +2154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,7 +2249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -2260,7 +2344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2355,7 +2439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -2450,7 +2534,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2545,7 +2629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2640,7 +2724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -2735,7 +2819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -2830,7 +2914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2925,7 +3009,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -3020,7 +3104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -3115,7 +3199,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3210,7 +3294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -3305,7 +3389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3400,7 +3484,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -3495,7 +3579,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -3590,7 +3674,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -3685,7 +3769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -3780,7 +3864,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -3875,7 +3959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -3970,7 +4054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -4065,7 +4149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -4160,7 +4244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -4255,7 +4339,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -4350,7 +4434,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -4445,7 +4529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -4540,7 +4624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -4635,7 +4719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -4730,7 +4814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -4825,7 +4909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -4920,7 +5004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -5015,7 +5099,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -5110,7 +5194,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -5205,7 +5289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -5300,7 +5384,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -5395,7 +5479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
@@ -5490,7 +5574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
@@ -5585,7 +5669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -5680,7 +5764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
@@ -5775,7 +5859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -5870,7 +5954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
@@ -5965,7 +6049,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
@@ -6060,7 +6144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
@@ -6155,7 +6239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -6250,7 +6334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
@@ -6345,7 +6429,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -6440,7 +6524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>40</v>
       </c>
@@ -6535,7 +6619,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
@@ -6630,7 +6714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
@@ -6725,7 +6809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
@@ -6820,7 +6904,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
@@ -6915,7 +6999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>40</v>
       </c>
@@ -7010,7 +7094,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>40</v>
       </c>
@@ -7105,7 +7189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -7200,7 +7284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>40</v>
       </c>
@@ -7295,7 +7379,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>40</v>
       </c>
@@ -7390,7 +7474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>40</v>
       </c>
@@ -7485,7 +7569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -7580,7 +7664,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>40</v>
       </c>
@@ -7675,7 +7759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>40</v>
       </c>
@@ -7770,7 +7854,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>40</v>
       </c>
@@ -7865,7 +7949,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -7960,7 +8044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>40</v>
       </c>
@@ -8055,7 +8139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
@@ -8150,7 +8234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -8245,7 +8329,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
@@ -8340,7 +8424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>40</v>
       </c>
@@ -8435,7 +8519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>40</v>
       </c>
@@ -8530,7 +8614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>40</v>
       </c>
@@ -8625,7 +8709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>40</v>
       </c>
@@ -8720,7 +8804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
@@ -8815,7 +8899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
@@ -8910,7 +8994,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>40</v>
       </c>
@@ -9005,7 +9089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>40</v>
       </c>
@@ -9100,7 +9184,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>40</v>
       </c>
@@ -9195,7 +9279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -9290,7 +9374,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>40</v>
       </c>
@@ -9385,7 +9469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>40</v>
       </c>
@@ -9480,7 +9564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
@@ -9575,7 +9659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>40</v>
       </c>
@@ -9670,7 +9754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
@@ -9765,7 +9849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
@@ -9860,7 +9944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -9955,7 +10039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -10050,7 +10134,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>40</v>
       </c>
@@ -10145,7 +10229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>40</v>
       </c>
@@ -10240,7 +10324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>40</v>
       </c>
@@ -10335,7 +10419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
@@ -10430,512 +10514,984 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="499" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="500" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="501" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="502" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="503" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="504" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="507" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="508" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="509" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="510" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="511" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="512" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="513" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="515" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="516" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="517" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="518" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="519" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="520" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="521" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="522" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="524" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="525" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="526" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="527" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="529" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="530" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="531" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="532" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="533" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="535" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="536" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="537" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="538" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="539" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="540" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="541" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="542" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="543" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="544" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="546" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="547" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="548" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="549" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="550" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="551" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="552" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="553" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="554" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="555" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="557" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="558" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="559" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="560" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="561" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="562" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="563" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="564" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="565" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="567" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="568" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="569" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="570" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="571" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="572" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="573" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="574" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="575" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="577" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="578" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="579" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="580" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="581" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="582" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="583" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="584" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="585" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="587" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="588" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="589" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="590" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="591" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="592" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="593" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="594" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="595" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="597" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="598" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="599" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="600" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="596" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>